--- a/docs/templates/ccrcn_sites_template.xlsx
+++ b/docs/templates/ccrcn_sites_template.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">column_name</t>
   </si>
@@ -21,16 +21,16 @@
     <t xml:space="preserve">definition</t>
   </si>
   <si>
+    <t xml:space="preserve">required</t>
+  </si>
+  <si>
     <t xml:space="preserve">field_type</t>
   </si>
   <si>
     <t xml:space="preserve">unit</t>
   </si>
   <si>
-    <t xml:space="preserve">text_format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">values</t>
+    <t xml:space="preserve">variable_codes</t>
   </si>
   <si>
     <t xml:space="preserve">study_id</t>
@@ -48,6 +48,9 @@
     <t xml:space="preserve">Site identification code unique to each study.</t>
   </si>
   <si>
+    <t xml:space="preserve">optional</t>
+  </si>
+  <si>
     <t xml:space="preserve">site_description</t>
   </si>
   <si>
@@ -163,24 +166,6 @@
   </si>
   <si>
     <t xml:space="preserve">Any relevant submitter generated notes on how inundation was determined.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">format, units, or variable codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estuarine; brine; saline; brackish; fresh; mixoeuhaline; polyhaline; mesohaline; oligohaline; estuarine C-CAP; palustrine C-CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field observation; measurement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emergent; scrub shrub; forested; forested to shrub; forested to emergent; seagrass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high; mid; low; levee; back</t>
   </si>
 </sst>
 </file>
@@ -570,9 +555,11 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
@@ -584,239 +571,271 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
@@ -857,117 +876,77 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="7.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="16.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="17.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="18.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="18.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="15.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="14.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="15.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="14.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="16.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="17.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="16.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="16.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="17.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="16.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
